--- a/prog/data_processing/result/describe_predictors/5 emp del.xlsx
+++ b/prog/data_processing/result/describe_predictors/5 emp del.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KFA\university\диплом\diplom_project\prog\data_processing\result\describe_predictors\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -202,8 +207,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,17 +267,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -310,9 +323,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -344,9 +357,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,9 +392,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -553,14 +568,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -591,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -608,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -625,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -642,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -659,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -676,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -693,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -710,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -727,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -744,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -761,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -778,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -795,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -812,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -829,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -846,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -863,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -880,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -897,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -914,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -931,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -948,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -965,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -982,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -999,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1016,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1033,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>

--- a/prog/data_processing/result/describe_predictors/5 emp del.xlsx
+++ b/prog/data_processing/result/describe_predictors/5 emp del.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KFA\university\диплом\diplom_project\prog\data_processing\result\describe_predictors\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -207,8 +202,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,25 +262,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -323,9 +310,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,10 +344,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,10 +378,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -568,16 +553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -608,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -625,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -642,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -659,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -676,7 +659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -693,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -710,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -727,7 +710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -744,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -761,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -778,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -795,7 +778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -812,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -829,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -846,7 +829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -863,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -880,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -897,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -914,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -931,7 +914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -948,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -965,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -982,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -999,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1016,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1033,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -1050,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
